--- a/src/main/resources/2.3.data.xlsx
+++ b/src/main/resources/2.3.data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>378282246310005</t>
   </si>
@@ -123,9 +123,6 @@
     <t>qwertyuiop</t>
   </si>
   <si>
-    <t>" asd 123 "</t>
-  </si>
-  <si>
     <t>!@#$%^&amp;*()_+=-/\'.,</t>
   </si>
   <si>
@@ -144,17 +141,44 @@
     <t>zxcvbnm</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>qwqw</t>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>test-test@gmail.gc.ca</t>
+  </si>
+  <si>
+    <t>web_test_kush@ukr.net</t>
+  </si>
+  <si>
+    <t>me.asas@gmail.com..ca</t>
+  </si>
+  <si>
+    <t>test.test@yahoo-test.gc.ca</t>
+  </si>
+  <si>
+    <t>me.@gmail.com.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qwer 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asdf 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zxcv 7890 </t>
+  </si>
+  <si>
+    <t>me..fgfg@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +216,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,17 +277,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
     <dxf>
       <font>
         <strike val="0"/>
@@ -313,6 +341,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -328,6 +371,25 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -444,6 +506,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -482,57 +563,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:B7">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="5" name="#" dataDxfId="14">
+    <tableColumn id="5" name="#" dataDxfId="18">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="First Name" dataDxfId="4"/>
+    <tableColumn id="3" name="First Name" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="D1:E8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="D1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="D1:E7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="D1:E7"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="#" dataDxfId="3">
+    <tableColumn id="5" name="#" dataDxfId="14">
       <calculatedColumnFormula>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Last Name" dataDxfId="2"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица145" displayName="Таблица145" ref="G1:H7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица145" displayName="Таблица145" ref="G1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="G1:H7"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="#" dataDxfId="11">
+    <tableColumn id="5" name="#" dataDxfId="3">
       <calculatedColumnFormula>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="License Number" dataDxfId="10"/>
+    <tableColumn id="3" name="License Number" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица1456" displayName="Таблица1456" ref="J1:K7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="J1:K7"/>
+  <tableColumns count="2">
+    <tableColumn id="5" name="#" dataDxfId="7">
+      <calculatedColumnFormula>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Email" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:D19">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" name="№ п/п" dataDxfId="8"/>
-    <tableColumn id="5" name="Тип карты" dataDxfId="7"/>
-    <tableColumn id="2" name="Номер карты" dataDxfId="6"/>
-    <tableColumn id="3" name="Длина" dataDxfId="5">
+    <tableColumn id="4" name="№ п/п" dataDxfId="11"/>
+    <tableColumn id="5" name="Тип карты" dataDxfId="10"/>
+    <tableColumn id="2" name="Номер карты" dataDxfId="9"/>
+    <tableColumn id="3" name="Длина" dataDxfId="8">
       <calculatedColumnFormula>LEN(C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -825,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,9 +932,10 @@
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -851,16 +946,22 @@
         <v>33</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -873,31 +974,44 @@
         <v>1</v>
       </c>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5">
         <f>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5">
         <f>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</f>
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5">
         <f>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</f>
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6">
         <f>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</f>
         <v>3</v>
@@ -910,101 +1024,121 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6">
         <f>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</f>
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="J4" s="6">
+        <f>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
         <f>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</f>
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6">
         <f>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</f>
         <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6">
         <f>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</f>
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="J5" s="6">
+        <f>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5">
         <f>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</f>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</f>
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5">
         <f>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</f>
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5">
         <f>IF(Таблица1[[#This Row],[First Name]]=""," ",ROW()-1)</f>
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5">
         <f>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</f>
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Таблица145[[#This Row],[License Number]]=""," ",ROW()-1)</f>
         <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" s="12">
-        <f>IF(Таблица14[[#This Row],[Last Name]]=""," ",ROW()-1)</f>
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="13">
+        <f>IF(Таблица1456[[#This Row],[Email]]=""," ",ROW()-1)</f>
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
